--- a/external/PerfSqrt.xlsx
+++ b/external/PerfSqrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Desktop\Coding\Filling SIMD gaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59957AC4-3C8F-4589-87C2-18CFACD43277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8AFF9F-4D39-4DFB-9D75-FF2E2DD5DD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{395B90C2-E5A1-4B1B-8B08-7B8CE154B6A8}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{395B90C2-E5A1-4B1B-8B08-7B8CE154B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Time taken to calculate 500 million results at -O2</t>
   </si>
@@ -164,6 +164,23 @@
       <t>(Broadwell)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i3-N305
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Alder Lake-N)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -543,15 +560,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,7 +928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +957,9 @@
       <c r="G1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +967,7 @@
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="24">
         <v>2.16</v>
       </c>
       <c r="D2" s="5">
@@ -960,8 +979,11 @@
       <c r="F2" s="5">
         <v>13.79</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="27">
         <v>4.97</v>
+      </c>
+      <c r="H2" s="12">
+        <v>4.9800000000000004</v>
       </c>
       <c r="I2" s="9"/>
       <c r="K2" s="30" t="s">
@@ -988,10 +1010,12 @@
       <c r="F3" s="4">
         <v>36.119999999999997</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>11.47</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="6">
+        <v>34.840000000000003</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
@@ -1014,10 +1038,12 @@
       <c r="F4" s="4">
         <v>27.63</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>9.33</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6">
+        <v>11.37</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1037,10 +1063,12 @@
       <c r="F5" s="4">
         <v>31.14</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>9.98</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="6">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1060,10 +1088,12 @@
       <c r="F6" s="4">
         <v>15.26</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>4.87</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="6">
+        <v>8.14</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1083,10 +1113,12 @@
       <c r="F7" s="4">
         <v>14.1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>4.9400000000000004</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="6">
+        <v>4.38</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1106,10 +1138,12 @@
       <c r="F8" s="4">
         <v>15.33</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>5.29</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6">
+        <v>5.61</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,10 +1163,12 @@
       <c r="F9" s="4">
         <v>29.56</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>9.35</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="6">
+        <v>31.47</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -1141,10 +1177,10 @@
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="13">
         <v>3.65</v>
       </c>
       <c r="D10" s="4">
@@ -1156,10 +1192,12 @@
       <c r="F10" s="4">
         <v>47.24</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>12.84</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6">
+        <v>8.09</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -1183,10 +1221,12 @@
       <c r="F11" s="4">
         <v>30.32</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>10.51</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="6">
+        <v>7.71</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1210,10 +1250,12 @@
       <c r="F12" s="7">
         <v>32.93</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>10.39</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="8">
+        <v>5.93</v>
+      </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1254,10 +1296,10 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>2.16</v>
       </c>
       <c r="D23" s="5">
@@ -1278,7 +1320,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="13">
@@ -1302,7 +1344,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="13">
@@ -1323,7 +1365,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="13">
@@ -1344,7 +1386,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="13">
@@ -1365,7 +1407,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="13">
@@ -1386,7 +1428,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="13">
@@ -1407,7 +1449,7 @@
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="14">
@@ -1638,6 +1680,186 @@
     <mergeCell ref="C22:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C37">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C40">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C45">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C50">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:H15">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:H31">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:H37">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:H40">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:H53">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1649,43 +1871,163 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C30">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="D23:D30 I24:I30 G24:G30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:I15">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:I31">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:I37">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:I40">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:I45">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:I50">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:I53">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:F30">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G30">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:I13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I12">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -1697,296 +2039,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C37">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C40">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C45">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C50">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:H15">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:H31">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:H37">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:H40">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:H53">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D30 I24:I30 G24:G30">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:I15">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:I31">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:I37">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:I40">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:I45">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:I50">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:I53">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:F30">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
+  <conditionalFormatting sqref="H2:H12">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G30">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I13">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I12">
-    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
